--- a/scrapy/static/data/bhandup+society+Ad+Advertiser.xlsx
+++ b/scrapy/static/data/bhandup+society+Ad+Advertiser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,90 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sponsored
-2 and 2.5 BHKs at Bhandup West | Anant Siddhi Launch at...
-anantsiddhi.co.in
-https://www.anantsiddhi.co.in › official › website
-Launching 2 and 2.5 Bed Residences at Anant Siddhi in LBS Marg, Bhandup W. EOI window now open. Pre-book with ₹49,999/-* and avail launch benefit of ₹9 Lakhs.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ANAROCK Property Consultants Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sponsored
-Near upcoming metro station | Forest Living in LBS Marg
-lodhagroup.in
-https://www.lodhagroup.in
-Live an exceptional lifestyle with forest living as Lodha comes to the prime LBS Marg.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Macrotech Developers Limited</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sponsored
-Bhandup apartments | 2 &amp; 3 BHK Starting ₹2.29 Cr*
-prelaunch-projects.in
-https://www.prelaunch-projects.in › lodhabhandup › luxuryhomes
-Get EOI and Early Bird Benefits, Prime location at LBS Road Bhandup by Lodha. Lodha Bhandup 2 &amp; 3 BHK Homes Starting Price ₹2.29 Cr* All Inclusive. At...</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PRELAUNCH REALTY PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sponsored
-Flats for Sale in Bhandup West
-proptigermumbai.com
-https://www.proptigermumbai.com
-New Projects in Bhandup — Apartments Are Designed To Provide Comfort, Style &amp; Elegance. RERA Registered. Enquire Now</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Locon Solutions Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
